--- a/실무_엑셀_예제_파일/Chapter07/07-010.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-010.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\3. 피드백_수정\2차 피드백\정리 중인 예제 파일\Chapter07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F700A6-7F32-439D-92BD-EE5A7FC2F616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB0E73-F257-4DAE-BEFB-8E20A01A25A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="768" windowWidth="12576" windowHeight="13488" xr2:uid="{CBA96387-2BB5-4DAF-B3C4-E7D2BEFE7B33}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CBA96387-2BB5-4DAF-B3C4-E7D2BEFE7B33}"/>
   </bookViews>
   <sheets>
     <sheet name="한빛마트" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>등록일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -113,6 +104,9 @@
   </si>
   <si>
     <t>서식 :</t>
+  </si>
+  <si>
+    <t>m월 d일 (aaa)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,9 +243,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -575,37 +566,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE1502B-B4EC-493C-AB4A-0C93C390A3CF}">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="13.296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" style="7" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="12" t="str">
+    <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="25.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="11" t="str">
         <f ca="1">"한빛마트 신선제품 가격표"&amp;TEXT(TODAY()," (yy년m월d일)")</f>
-        <v>한빛마트 신선제품 가격표 (21년11월25일)</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" ht="7.2" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+        <v>한빛마트 신선제품 가격표 (25년4월23일)</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="2:6" ht="7.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:6" ht="19.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -622,10 +617,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <f t="shared" ref="B6:B18" ca="1" si="0">B7</f>
-        <v>44522</v>
+        <v>45767</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -633,13 +628,16 @@
       <c r="D6" s="7">
         <v>5950</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E6" s="3" t="str">
+        <f ca="1">TEXT(B6, $E$4)</f>
+        <v>4월 20일 (일)</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44522</v>
+        <v>45767</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -647,13 +645,16 @@
       <c r="D7" s="7">
         <v>4750</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E7" s="3" t="str">
+        <f t="shared" ref="E7:E20" ca="1" si="1">TEXT(B7, $E$4)</f>
+        <v>4월 20일 (일)</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44522</v>
+        <v>45767</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -661,13 +662,16 @@
       <c r="D8" s="7">
         <v>4780</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E8" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4월 20일 (일)</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <f ca="1">B10-1</f>
-        <v>44522</v>
+        <v>45767</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -675,13 +679,16 @@
       <c r="D9" s="7">
         <v>1290</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E9" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4월 20일 (일)</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44523</v>
+        <v>45768</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -689,13 +696,16 @@
       <c r="D10" s="7">
         <v>4200</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E10" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4월 21일 (월)</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44523</v>
+        <v>45768</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -703,13 +713,16 @@
       <c r="D11" s="7">
         <v>7990</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E11" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4월 21일 (월)</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44523</v>
+        <v>45768</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -717,13 +730,16 @@
       <c r="D12" s="7">
         <v>4800</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E12" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4월 21일 (월)</v>
+      </c>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <f ca="1">B14-1</f>
-        <v>44523</v>
+        <v>45768</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -731,13 +747,16 @@
       <c r="D13" s="7">
         <v>4860</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E13" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4월 21일 (월)</v>
+      </c>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44524</v>
+        <v>45769</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -745,13 +764,16 @@
       <c r="D14" s="7">
         <v>8800</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E14" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4월 22일 (화)</v>
+      </c>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44524</v>
+        <v>45769</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -759,13 +781,16 @@
       <c r="D15" s="7">
         <v>12500</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E15" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4월 22일 (화)</v>
+      </c>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44524</v>
+        <v>45769</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -773,13 +798,16 @@
       <c r="D16" s="7">
         <v>2900</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E16" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4월 22일 (화)</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="2">
         <f ca="1">B18-1</f>
-        <v>44524</v>
+        <v>45769</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -787,13 +815,16 @@
       <c r="D17" s="7">
         <v>1740</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E17" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4월 22일 (화)</v>
+      </c>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44525</v>
+        <v>45770</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
@@ -801,13 +832,16 @@
       <c r="D18" s="7">
         <v>1100</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E18" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4월 23일 (수)</v>
+      </c>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
         <f ca="1">B20</f>
-        <v>44525</v>
+        <v>45770</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>17</v>
@@ -815,13 +849,16 @@
       <c r="D19" s="7">
         <v>3000</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E19" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4월 23일 (수)</v>
+      </c>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="2">
         <f ca="1">TODAY()</f>
-        <v>44525</v>
+        <v>45770</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -829,8 +866,11 @@
       <c r="D20" s="7">
         <v>4190</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4월 23일 (수)</v>
+      </c>
+      <c r="F20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/실무_엑셀_예제_파일/Chapter07/07-010.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB0E73-F257-4DAE-BEFB-8E20A01A25A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400CA680-3E32-4283-92FD-5384D6D97B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{CBA96387-2BB5-4DAF-B3C4-E7D2BEFE7B33}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <f t="shared" ref="B6:B18" ca="1" si="0">B7</f>
         <v>45767</v>
@@ -632,9 +632,13 @@
         <f ca="1">TEXT(B6, $E$4)</f>
         <v>4월 20일 (일)</v>
       </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F6" s="8" t="str">
+        <f ca="1">C6 &amp; TEXT(B6, "(m/d)") &amp; CHAR(10) &amp; TEXT(D6, "#,##0원")</f>
+        <v>1급 A우유(4/20)
+5,950원</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>45767</v>
@@ -649,9 +653,13 @@
         <f t="shared" ref="E7:E20" ca="1" si="1">TEXT(B7, $E$4)</f>
         <v>4월 20일 (일)</v>
       </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F7" s="8" t="str">
+        <f t="shared" ref="F7:F20" ca="1" si="2">C7 &amp; TEXT(B7, "(m/d)") &amp; CHAR(10) &amp; TEXT(D7, "#,##0원")</f>
+        <v>맛있는 우유(4/20)
+4,750원</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>45767</v>
@@ -666,9 +674,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>4월 20일 (일)</v>
       </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F8" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>국산콩 두부(4/20)
+4,780원</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <f ca="1">B10-1</f>
         <v>45767</v>
@@ -683,9 +695,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>4월 20일 (일)</v>
       </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F9" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>아삭한 콩나물(4/20)
+1,290원</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>45768</v>
@@ -700,9 +716,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>4월 21일 (월)</v>
       </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F10" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>대추방울토마토(4/21)
+4,200원</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>45768</v>
@@ -717,9 +737,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>4월 21일 (월)</v>
       </c>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F11" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>금계란 1++ 특란(4/21)
+7,990원</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>45768</v>
@@ -734,9 +758,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>4월 21일 (월)</v>
       </c>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F12" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>신선한 우유(4/21)
+4,800원</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <f ca="1">B14-1</f>
         <v>45768</v>
@@ -751,9 +779,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>4월 21일 (월)</v>
       </c>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F13" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>스위티오 바나나(4/21)
+4,860원</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>45769</v>
@@ -768,9 +800,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>4월 22일 (화)</v>
       </c>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F14" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>비엔나 소시지(4/22)
+8,800원</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>45769</v>
@@ -785,9 +821,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>4월 22일 (화)</v>
       </c>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F15" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>치킨너겟(4/22)
+12,500원</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>45769</v>
@@ -802,9 +842,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>4월 22일 (화)</v>
       </c>
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F16" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>국산 콩나물(4/22)
+2,900원</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B17" s="2">
         <f ca="1">B18-1</f>
         <v>45769</v>
@@ -819,9 +863,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>4월 22일 (화)</v>
       </c>
-      <c r="F17"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F17" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>청경채 300g(4/22)
+1,740원</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>45770</v>
@@ -836,9 +884,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>4월 23일 (수)</v>
       </c>
-      <c r="F18"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F18" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>손질 부추 100g(4/23)
+1,100원</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
         <f ca="1">B20</f>
         <v>45770</v>
@@ -853,9 +905,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>4월 23일 (수)</v>
       </c>
-      <c r="F19"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F19" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>우리콩 순두부(4/23)
+3,000원</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="34" x14ac:dyDescent="0.45">
       <c r="B20" s="2">
         <f ca="1">TODAY()</f>
         <v>45770</v>
@@ -870,7 +926,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>4월 23일 (수)</v>
       </c>
-      <c r="F20"/>
+      <c r="F20" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>우유 토스트식빵(4/23)
+4,190원</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
